--- a/Processed/Cook_county.xlsx
+++ b/Processed/Cook_county.xlsx
@@ -16,12 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
-    <numFmt numFmtId="166" formatCode="mm:ss.0;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -90,12 +89,25 @@
     <font>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -126,8 +138,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -163,12 +181,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -178,112 +207,80 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="45" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="45" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="45" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -662,426 +659,427 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col width="28" customWidth="1" style="14" min="1" max="1"/>
-    <col width="18.81640625" customWidth="1" style="14" min="2" max="2"/>
-    <col width="29" customWidth="1" style="14" min="3" max="3"/>
-    <col width="28.90625" customWidth="1" style="14" min="4" max="4"/>
-    <col width="21.1796875" customWidth="1" style="14" min="5" max="5"/>
-    <col width="37.7265625" customWidth="1" style="14" min="6" max="6"/>
-    <col width="32.6328125" customWidth="1" style="14" min="7" max="7"/>
-    <col width="24.36328125" customWidth="1" style="14" min="8" max="8"/>
-    <col width="18" customWidth="1" style="14" min="9" max="9"/>
-    <col width="8.7265625" customWidth="1" style="14" min="10" max="33"/>
-    <col width="8.7265625" customWidth="1" style="14" min="34" max="16384"/>
+    <col width="28" customWidth="1" style="18" min="1" max="1"/>
+    <col width="18.81640625" customWidth="1" style="27" min="2" max="2"/>
+    <col width="29" customWidth="1" style="18" min="3" max="3"/>
+    <col width="37.54296875" customWidth="1" style="18" min="4" max="4"/>
+    <col width="23.26953125" customWidth="1" style="18" min="5" max="5"/>
+    <col width="14.26953125" customWidth="1" style="18" min="6" max="6"/>
+    <col width="17.6328125" customWidth="1" style="18" min="7" max="7"/>
+    <col width="24.36328125" customWidth="1" style="18" min="8" max="8"/>
+    <col width="18" customWidth="1" style="18" min="9" max="9"/>
+    <col width="8.7265625" customWidth="1" style="18" min="10" max="35"/>
+    <col width="8.7265625" customWidth="1" style="18" min="36" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="35" t="inlineStr">
+      <c r="A1" s="14" t="inlineStr">
         <is>
           <t>Order No</t>
         </is>
       </c>
-      <c r="B1" s="9" t="inlineStr">
+      <c r="B1" s="24" t="inlineStr">
         <is>
           <t>APN</t>
         </is>
       </c>
-      <c r="C1" s="9" t="inlineStr">
+      <c r="C1" s="16" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
       </c>
-      <c r="D1" s="36" t="inlineStr">
+      <c r="D1" s="15" t="inlineStr">
         <is>
           <t>Property Address</t>
         </is>
       </c>
-      <c r="E1" s="37" t="inlineStr">
+      <c r="E1" s="15" t="inlineStr">
         <is>
           <t>Product Type</t>
         </is>
       </c>
-      <c r="F1" s="10" t="inlineStr">
+      <c r="F1" s="17" t="inlineStr">
         <is>
           <t>Start_time</t>
         </is>
       </c>
-      <c r="G1" s="10" t="inlineStr">
+      <c r="G1" s="17" t="inlineStr">
         <is>
           <t>End_Time</t>
         </is>
       </c>
-      <c r="H1" s="11" t="inlineStr">
+      <c r="H1" s="17" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="I1" s="11" t="inlineStr">
+      <c r="I1" s="17" t="inlineStr">
         <is>
           <t>Total_Time</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="18.5" customHeight="1">
-      <c r="A2" s="15" t="n">
-        <v>988635</v>
-      </c>
-      <c r="B2" s="15" t="n">
-        <v>12283200450000</v>
-      </c>
-      <c r="C2" s="16" t="inlineStr">
-        <is>
-          <t>Robert smith</t>
-        </is>
-      </c>
-      <c r="D2" s="12" t="n"/>
-      <c r="E2" s="13" t="n"/>
-      <c r="F2" s="41" t="n">
-        <v>45030.43417066681</v>
-      </c>
-      <c r="G2" s="38" t="n">
-        <v>45030.43558166263</v>
-      </c>
-      <c r="H2" s="32" t="inlineStr">
+    <row r="2" ht="18.5" customHeight="1" thickBot="1">
+      <c r="A2" s="29" t="n">
+        <v>1163435</v>
+      </c>
+      <c r="B2" s="25" t="n">
+        <v>14052150151180</v>
+      </c>
+      <c r="C2" s="29" t="inlineStr">
+        <is>
+          <t>Cynthia  Arn</t>
+        </is>
+      </c>
+      <c r="D2" s="30" t="inlineStr">
+        <is>
+          <t>6007 N Sheridan Rd UNIT 22D IL COOK 60660</t>
+        </is>
+      </c>
+      <c r="E2" s="9" t="inlineStr">
+        <is>
+          <t>COS</t>
+        </is>
+      </c>
+      <c r="F2" s="31" t="n">
+        <v>45033.00047895937</v>
+      </c>
+      <c r="G2" s="32" t="n">
+        <v>45033.00367052502</v>
+      </c>
+      <c r="H2" s="19" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="I2" s="17" t="inlineStr">
-        <is>
-          <t>0:02:01.910039</t>
+      <c r="I2" s="19" t="inlineStr">
+        <is>
+          <t>0:04:35.751272</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18.5" customHeight="1">
-      <c r="A3" s="31" t="n"/>
-      <c r="B3" s="16" t="n"/>
-      <c r="C3" s="12" t="n"/>
-      <c r="D3" s="12" t="n"/>
-      <c r="E3" s="13" t="n"/>
-      <c r="F3" s="42" t="n"/>
-      <c r="G3" s="17" t="n"/>
-      <c r="H3" s="32" t="n"/>
-      <c r="I3" s="17" t="n"/>
+      <c r="A3" s="12" t="n"/>
+      <c r="B3" s="25" t="n"/>
+      <c r="C3" s="9" t="n"/>
+      <c r="D3" s="9" t="n"/>
+      <c r="E3" s="9" t="n"/>
+      <c r="F3" s="9" t="n"/>
+      <c r="G3" s="19" t="n"/>
+      <c r="H3" s="19" t="n"/>
+      <c r="I3" s="19" t="n"/>
     </row>
     <row r="4" ht="18.5" customHeight="1">
-      <c r="A4" s="19" t="n"/>
-      <c r="B4" s="20" t="n"/>
-      <c r="C4" s="12" t="n"/>
-      <c r="D4" s="12" t="n"/>
-      <c r="E4" s="13" t="n"/>
-      <c r="F4" s="42" t="n"/>
-      <c r="G4" s="17" t="n"/>
-      <c r="H4" s="32" t="n"/>
-      <c r="I4" s="17" t="n"/>
+      <c r="A4" s="9" t="n"/>
+      <c r="B4" s="25" t="n"/>
+      <c r="C4" s="9" t="n"/>
+      <c r="D4" s="9" t="n"/>
+      <c r="E4" s="9" t="n"/>
+      <c r="F4" s="9" t="n"/>
+      <c r="G4" s="19" t="n"/>
+      <c r="H4" s="19" t="n"/>
+      <c r="I4" s="19" t="n"/>
     </row>
     <row r="5" ht="15.5" customHeight="1">
-      <c r="A5" s="33" t="n"/>
-      <c r="B5" s="22" t="n"/>
-      <c r="C5" s="22" t="n"/>
-      <c r="D5" s="23" t="n"/>
-      <c r="E5" s="24" t="n"/>
-      <c r="F5" s="25" t="n"/>
-      <c r="G5" s="25" t="n"/>
-      <c r="H5" s="22" t="n"/>
-      <c r="I5" s="22" t="n"/>
+      <c r="A5" s="13" t="n"/>
+      <c r="B5" s="24" t="n"/>
+      <c r="C5" s="20" t="n"/>
+      <c r="D5" s="11" t="n"/>
+      <c r="E5" s="11" t="n"/>
+      <c r="F5" s="20" t="n"/>
+      <c r="G5" s="20" t="n"/>
+      <c r="H5" s="20" t="n"/>
+      <c r="I5" s="20" t="n"/>
     </row>
     <row r="6" ht="15.5" customHeight="1">
-      <c r="A6" s="26" t="n"/>
-      <c r="B6" s="26" t="n"/>
-      <c r="C6" s="27" t="n"/>
-      <c r="D6" s="23" t="n"/>
-      <c r="E6" s="24" t="n"/>
-      <c r="F6" s="24" t="n"/>
-      <c r="G6" s="22" t="n"/>
-      <c r="H6" s="34" t="n"/>
-      <c r="I6" s="22" t="n"/>
+      <c r="A6" s="10" t="n"/>
+      <c r="B6" s="24" t="n"/>
+      <c r="C6" s="21" t="n"/>
+      <c r="D6" s="11" t="n"/>
+      <c r="E6" s="11" t="n"/>
+      <c r="F6" s="11" t="n"/>
+      <c r="G6" s="20" t="n"/>
+      <c r="H6" s="20" t="n"/>
+      <c r="I6" s="20" t="n"/>
     </row>
     <row r="7" ht="15.5" customHeight="1">
-      <c r="A7" s="28" t="n"/>
+      <c r="A7" s="11" t="n"/>
       <c r="B7" s="24" t="n"/>
-      <c r="C7" s="23" t="n"/>
-      <c r="D7" s="23" t="n"/>
-      <c r="E7" s="24" t="n"/>
-      <c r="F7" s="24" t="n"/>
-      <c r="G7" s="22" t="n"/>
-      <c r="H7" s="34" t="n"/>
-      <c r="I7" s="22" t="n"/>
+      <c r="C7" s="11" t="n"/>
+      <c r="D7" s="11" t="n"/>
+      <c r="E7" s="11" t="n"/>
+      <c r="F7" s="11" t="n"/>
+      <c r="G7" s="20" t="n"/>
+      <c r="H7" s="20" t="n"/>
+      <c r="I7" s="20" t="n"/>
     </row>
     <row r="8" ht="15.5" customHeight="1">
-      <c r="A8" s="28" t="n"/>
+      <c r="A8" s="11" t="n"/>
       <c r="B8" s="24" t="n"/>
-      <c r="C8" s="23" t="n"/>
-      <c r="D8" s="23" t="n"/>
-      <c r="E8" s="24" t="n"/>
-      <c r="F8" s="24" t="n"/>
-      <c r="G8" s="22" t="n"/>
-      <c r="H8" s="34" t="n"/>
-      <c r="I8" s="22" t="n"/>
+      <c r="C8" s="11" t="n"/>
+      <c r="D8" s="11" t="n"/>
+      <c r="E8" s="11" t="n"/>
+      <c r="F8" s="11" t="n"/>
+      <c r="G8" s="20" t="n"/>
+      <c r="H8" s="20" t="n"/>
+      <c r="I8" s="20" t="n"/>
     </row>
     <row r="9" ht="15.5" customHeight="1">
-      <c r="A9" s="7" t="n"/>
-      <c r="B9" s="13" t="n"/>
-      <c r="C9" s="12" t="n"/>
-      <c r="D9" s="12" t="n"/>
-      <c r="E9" s="13" t="n"/>
-      <c r="F9" s="13" t="n"/>
-      <c r="G9" s="17" t="n"/>
-      <c r="H9" s="32" t="n"/>
-      <c r="I9" s="17" t="n"/>
+      <c r="A9" s="22" t="n"/>
+      <c r="B9" s="24" t="n"/>
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="9" t="n"/>
+      <c r="E9" s="9" t="n"/>
+      <c r="F9" s="9" t="n"/>
+      <c r="G9" s="19" t="n"/>
+      <c r="H9" s="19" t="n"/>
+      <c r="I9" s="19" t="n"/>
     </row>
     <row r="10" ht="15.5" customHeight="1">
-      <c r="A10" s="19" t="n"/>
-      <c r="B10" s="13" t="n"/>
-      <c r="C10" s="12" t="n"/>
-      <c r="D10" s="12" t="n"/>
-      <c r="E10" s="13" t="n"/>
-      <c r="F10" s="13" t="n"/>
-      <c r="G10" s="17" t="n"/>
-      <c r="H10" s="32" t="n"/>
-      <c r="I10" s="17" t="n"/>
+      <c r="A10" s="9" t="n"/>
+      <c r="B10" s="24" t="n"/>
+      <c r="C10" s="9" t="n"/>
+      <c r="D10" s="9" t="n"/>
+      <c r="E10" s="9" t="n"/>
+      <c r="F10" s="9" t="n"/>
+      <c r="G10" s="19" t="n"/>
+      <c r="H10" s="19" t="n"/>
+      <c r="I10" s="19" t="n"/>
     </row>
     <row r="11" ht="15.5" customHeight="1">
-      <c r="A11" s="19" t="n"/>
-      <c r="B11" s="13" t="n"/>
-      <c r="C11" s="12" t="n"/>
-      <c r="D11" s="12" t="n"/>
-      <c r="E11" s="13" t="n"/>
-      <c r="F11" s="13" t="n"/>
-      <c r="G11" s="17" t="n"/>
-      <c r="H11" s="32" t="n"/>
-      <c r="I11" s="17" t="n"/>
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="24" t="n"/>
+      <c r="C11" s="9" t="n"/>
+      <c r="D11" s="9" t="n"/>
+      <c r="E11" s="9" t="n"/>
+      <c r="F11" s="9" t="n"/>
+      <c r="G11" s="19" t="n"/>
+      <c r="H11" s="19" t="n"/>
+      <c r="I11" s="19" t="n"/>
     </row>
     <row r="12" ht="15.5" customHeight="1">
-      <c r="A12" s="19" t="n"/>
-      <c r="B12" s="13" t="n"/>
-      <c r="C12" s="12" t="n"/>
-      <c r="D12" s="12" t="n"/>
-      <c r="E12" s="13" t="n"/>
-      <c r="F12" s="13" t="n"/>
-      <c r="G12" s="17" t="n"/>
-      <c r="H12" s="32" t="n"/>
-      <c r="I12" s="17" t="n"/>
+      <c r="A12" s="9" t="n"/>
+      <c r="B12" s="24" t="n"/>
+      <c r="C12" s="9" t="n"/>
+      <c r="D12" s="9" t="n"/>
+      <c r="E12" s="9" t="n"/>
+      <c r="F12" s="9" t="n"/>
+      <c r="G12" s="19" t="n"/>
+      <c r="H12" s="19" t="n"/>
+      <c r="I12" s="19" t="n"/>
     </row>
     <row r="13" ht="15.5" customHeight="1">
-      <c r="A13" s="19" t="n"/>
-      <c r="B13" s="8" t="n"/>
-      <c r="C13" s="12" t="n"/>
-      <c r="D13" s="12" t="n"/>
-      <c r="E13" s="13" t="n"/>
-      <c r="F13" s="13" t="n"/>
-      <c r="G13" s="17" t="n"/>
-      <c r="H13" s="32" t="n"/>
-      <c r="I13" s="17" t="n"/>
+      <c r="A13" s="9" t="n"/>
+      <c r="B13" s="28" t="n"/>
+      <c r="C13" s="9" t="n"/>
+      <c r="D13" s="9" t="n"/>
+      <c r="E13" s="9" t="n"/>
+      <c r="F13" s="9" t="n"/>
+      <c r="G13" s="19" t="n"/>
+      <c r="H13" s="19" t="n"/>
+      <c r="I13" s="19" t="n"/>
     </row>
     <row r="14" ht="15.5" customHeight="1">
-      <c r="A14" s="17" t="n"/>
-      <c r="B14" s="17" t="n"/>
-      <c r="C14" s="21" t="n"/>
-      <c r="D14" s="38" t="n"/>
-      <c r="E14" s="17" t="n"/>
-      <c r="F14" s="17" t="n"/>
-      <c r="G14" s="17" t="n"/>
-      <c r="H14" s="32" t="n"/>
-      <c r="I14" s="17" t="n"/>
+      <c r="A14" s="19" t="n"/>
+      <c r="B14" s="24" t="n"/>
+      <c r="C14" s="7" t="n"/>
+      <c r="D14" s="19" t="n"/>
+      <c r="E14" s="19" t="n"/>
+      <c r="F14" s="19" t="n"/>
+      <c r="G14" s="19" t="n"/>
+      <c r="H14" s="19" t="n"/>
+      <c r="I14" s="19" t="n"/>
     </row>
     <row r="15" ht="15.5" customHeight="1">
-      <c r="A15" s="17" t="n"/>
-      <c r="B15" s="17" t="n"/>
-      <c r="C15" s="38" t="n"/>
-      <c r="D15" s="38" t="n"/>
-      <c r="E15" s="17" t="n"/>
-      <c r="F15" s="17" t="n"/>
-      <c r="G15" s="17" t="n"/>
-      <c r="H15" s="32" t="n"/>
-      <c r="I15" s="17" t="n"/>
+      <c r="A15" s="19" t="n"/>
+      <c r="B15" s="24" t="n"/>
+      <c r="C15" s="19" t="n"/>
+      <c r="D15" s="19" t="n"/>
+      <c r="E15" s="19" t="n"/>
+      <c r="F15" s="19" t="n"/>
+      <c r="G15" s="19" t="n"/>
+      <c r="H15" s="19" t="n"/>
+      <c r="I15" s="19" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="17" t="n"/>
-      <c r="B16" s="17" t="n"/>
-      <c r="C16" s="38" t="n"/>
-      <c r="D16" s="38" t="n"/>
-      <c r="E16" s="17" t="n"/>
-      <c r="F16" s="17" t="n"/>
-      <c r="G16" s="17" t="n"/>
-      <c r="H16" s="32" t="n"/>
-      <c r="I16" s="17" t="n"/>
+      <c r="A16" s="19" t="n"/>
+      <c r="B16" s="24" t="n"/>
+      <c r="C16" s="19" t="n"/>
+      <c r="D16" s="19" t="n"/>
+      <c r="E16" s="19" t="n"/>
+      <c r="F16" s="19" t="n"/>
+      <c r="G16" s="19" t="n"/>
+      <c r="H16" s="19" t="n"/>
+      <c r="I16" s="19" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="17" t="n"/>
-      <c r="B17" s="17" t="n"/>
-      <c r="C17" s="38" t="n"/>
-      <c r="D17" s="38" t="n"/>
-      <c r="E17" s="17" t="n"/>
-      <c r="F17" s="17" t="n"/>
-      <c r="G17" s="17" t="n"/>
-      <c r="H17" s="32" t="n"/>
-      <c r="I17" s="17" t="n"/>
+      <c r="A17" s="19" t="n"/>
+      <c r="B17" s="24" t="n"/>
+      <c r="C17" s="19" t="n"/>
+      <c r="D17" s="19" t="n"/>
+      <c r="E17" s="19" t="n"/>
+      <c r="F17" s="19" t="n"/>
+      <c r="G17" s="19" t="n"/>
+      <c r="H17" s="19" t="n"/>
+      <c r="I17" s="19" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="17" t="n"/>
-      <c r="B18" s="17" t="n"/>
-      <c r="C18" s="38" t="n"/>
-      <c r="D18" s="38" t="n"/>
-      <c r="E18" s="17" t="n"/>
-      <c r="F18" s="17" t="n"/>
-      <c r="G18" s="17" t="n"/>
-      <c r="H18" s="32" t="n"/>
-      <c r="I18" s="17" t="n"/>
+      <c r="A18" s="19" t="n"/>
+      <c r="B18" s="24" t="n"/>
+      <c r="C18" s="19" t="n"/>
+      <c r="D18" s="19" t="n"/>
+      <c r="E18" s="19" t="n"/>
+      <c r="F18" s="19" t="n"/>
+      <c r="G18" s="19" t="n"/>
+      <c r="H18" s="19" t="n"/>
+      <c r="I18" s="19" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="17" t="n"/>
-      <c r="B19" s="17" t="n"/>
-      <c r="C19" s="38" t="n"/>
-      <c r="D19" s="38" t="n"/>
-      <c r="E19" s="17" t="n"/>
-      <c r="F19" s="17" t="n"/>
-      <c r="G19" s="17" t="n"/>
-      <c r="H19" s="32" t="n"/>
-      <c r="I19" s="17" t="n"/>
+      <c r="A19" s="19" t="n"/>
+      <c r="B19" s="24" t="n"/>
+      <c r="C19" s="19" t="n"/>
+      <c r="D19" s="19" t="n"/>
+      <c r="E19" s="19" t="n"/>
+      <c r="F19" s="19" t="n"/>
+      <c r="G19" s="19" t="n"/>
+      <c r="H19" s="19" t="n"/>
+      <c r="I19" s="19" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="17" t="n"/>
-      <c r="B20" s="17" t="n"/>
-      <c r="C20" s="38" t="n"/>
-      <c r="D20" s="38" t="n"/>
-      <c r="E20" s="17" t="n"/>
-      <c r="F20" s="17" t="n"/>
-      <c r="G20" s="17" t="n"/>
-      <c r="H20" s="32" t="n"/>
-      <c r="I20" s="17" t="n"/>
+      <c r="A20" s="19" t="n"/>
+      <c r="B20" s="24" t="n"/>
+      <c r="C20" s="19" t="n"/>
+      <c r="D20" s="19" t="n"/>
+      <c r="E20" s="19" t="n"/>
+      <c r="F20" s="19" t="n"/>
+      <c r="G20" s="19" t="n"/>
+      <c r="H20" s="19" t="n"/>
+      <c r="I20" s="19" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="17" t="n"/>
-      <c r="B21" s="17" t="n"/>
-      <c r="C21" s="38" t="n"/>
-      <c r="D21" s="38" t="n"/>
-      <c r="E21" s="17" t="n"/>
-      <c r="F21" s="17" t="n"/>
-      <c r="G21" s="17" t="n"/>
-      <c r="H21" s="32" t="n"/>
-      <c r="I21" s="17" t="n"/>
+      <c r="A21" s="19" t="n"/>
+      <c r="B21" s="24" t="n"/>
+      <c r="C21" s="19" t="n"/>
+      <c r="D21" s="19" t="n"/>
+      <c r="E21" s="19" t="n"/>
+      <c r="F21" s="19" t="n"/>
+      <c r="G21" s="19" t="n"/>
+      <c r="H21" s="19" t="n"/>
+      <c r="I21" s="19" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="17" t="n"/>
-      <c r="B22" s="17" t="n"/>
-      <c r="C22" s="38" t="n"/>
-      <c r="D22" s="38" t="n"/>
-      <c r="E22" s="17" t="n"/>
-      <c r="F22" s="17" t="n"/>
-      <c r="G22" s="17" t="n"/>
-      <c r="H22" s="32" t="n"/>
-      <c r="I22" s="17" t="n"/>
+      <c r="A22" s="19" t="n"/>
+      <c r="B22" s="24" t="n"/>
+      <c r="C22" s="19" t="n"/>
+      <c r="D22" s="19" t="n"/>
+      <c r="E22" s="19" t="n"/>
+      <c r="F22" s="19" t="n"/>
+      <c r="G22" s="19" t="n"/>
+      <c r="H22" s="19" t="n"/>
+      <c r="I22" s="19" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="17" t="n"/>
-      <c r="B23" s="17" t="n"/>
-      <c r="C23" s="38" t="n"/>
-      <c r="D23" s="38" t="n"/>
-      <c r="E23" s="17" t="n"/>
-      <c r="F23" s="17" t="n"/>
-      <c r="G23" s="17" t="n"/>
-      <c r="H23" s="32" t="n"/>
-      <c r="I23" s="17" t="n"/>
+      <c r="A23" s="19" t="n"/>
+      <c r="B23" s="24" t="n"/>
+      <c r="C23" s="19" t="n"/>
+      <c r="D23" s="19" t="n"/>
+      <c r="E23" s="19" t="n"/>
+      <c r="F23" s="19" t="n"/>
+      <c r="G23" s="19" t="n"/>
+      <c r="H23" s="19" t="n"/>
+      <c r="I23" s="19" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="17" t="n"/>
-      <c r="B24" s="17" t="n"/>
-      <c r="C24" s="38" t="n"/>
-      <c r="D24" s="38" t="n"/>
-      <c r="E24" s="17" t="n"/>
-      <c r="F24" s="17" t="n"/>
-      <c r="G24" s="17" t="n"/>
-      <c r="H24" s="32" t="n"/>
-      <c r="I24" s="17" t="n"/>
+      <c r="A24" s="19" t="n"/>
+      <c r="B24" s="24" t="n"/>
+      <c r="C24" s="19" t="n"/>
+      <c r="D24" s="19" t="n"/>
+      <c r="E24" s="19" t="n"/>
+      <c r="F24" s="19" t="n"/>
+      <c r="G24" s="19" t="n"/>
+      <c r="H24" s="19" t="n"/>
+      <c r="I24" s="19" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="29" t="n"/>
-      <c r="B25" s="29" t="n"/>
-      <c r="C25" s="30" t="n"/>
-      <c r="D25" s="30" t="n"/>
-      <c r="E25" s="29" t="n"/>
-      <c r="F25" s="29" t="n"/>
-      <c r="G25" s="29" t="n"/>
-      <c r="H25" s="18" t="n"/>
+      <c r="A25" s="23" t="n"/>
+      <c r="B25" s="26" t="n"/>
+      <c r="C25" s="23" t="n"/>
+      <c r="D25" s="23" t="n"/>
+      <c r="E25" s="23" t="n"/>
+      <c r="F25" s="23" t="n"/>
+      <c r="G25" s="23" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="17" t="n"/>
-      <c r="B26" s="17" t="n"/>
-      <c r="C26" s="38" t="n"/>
-      <c r="D26" s="38" t="n"/>
-      <c r="E26" s="17" t="n"/>
-      <c r="F26" s="17" t="n"/>
-      <c r="G26" s="17" t="n"/>
-      <c r="H26" s="18" t="n"/>
+      <c r="A26" s="19" t="n"/>
+      <c r="B26" s="24" t="n"/>
+      <c r="C26" s="19" t="n"/>
+      <c r="D26" s="19" t="n"/>
+      <c r="E26" s="19" t="n"/>
+      <c r="F26" s="19" t="n"/>
+      <c r="G26" s="19" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="17" t="n"/>
-      <c r="B27" s="17" t="n"/>
-      <c r="C27" s="38" t="n"/>
-      <c r="D27" s="38" t="n"/>
-      <c r="E27" s="17" t="n"/>
-      <c r="F27" s="17" t="n"/>
-      <c r="G27" s="17" t="n"/>
-      <c r="H27" s="18" t="n"/>
+      <c r="A27" s="19" t="n"/>
+      <c r="B27" s="24" t="n"/>
+      <c r="C27" s="19" t="n"/>
+      <c r="D27" s="19" t="n"/>
+      <c r="E27" s="19" t="n"/>
+      <c r="F27" s="19" t="n"/>
+      <c r="G27" s="19" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="17" t="n"/>
-      <c r="B28" s="17" t="n"/>
-      <c r="C28" s="38" t="n"/>
-      <c r="D28" s="38" t="n"/>
-      <c r="E28" s="17" t="n"/>
-      <c r="F28" s="17" t="n"/>
-      <c r="G28" s="17" t="n"/>
-      <c r="H28" s="18" t="n"/>
+      <c r="A28" s="19" t="n"/>
+      <c r="B28" s="24" t="n"/>
+      <c r="C28" s="19" t="n"/>
+      <c r="D28" s="19" t="n"/>
+      <c r="E28" s="19" t="n"/>
+      <c r="F28" s="19" t="n"/>
+      <c r="G28" s="19" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="17" t="n"/>
-      <c r="B29" s="17" t="n"/>
-      <c r="C29" s="38" t="n"/>
-      <c r="D29" s="38" t="n"/>
-      <c r="E29" s="17" t="n"/>
-      <c r="F29" s="17" t="n"/>
-      <c r="G29" s="17" t="n"/>
-      <c r="H29" s="18" t="n"/>
+      <c r="A29" s="19" t="n"/>
+      <c r="B29" s="24" t="n"/>
+      <c r="C29" s="19" t="n"/>
+      <c r="D29" s="19" t="n"/>
+      <c r="E29" s="19" t="n"/>
+      <c r="F29" s="19" t="n"/>
+      <c r="G29" s="19" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="17" t="n"/>
-      <c r="B30" s="17" t="n"/>
-      <c r="C30" s="38" t="n"/>
-      <c r="D30" s="38" t="n"/>
-      <c r="E30" s="17" t="n"/>
-      <c r="F30" s="17" t="n"/>
-      <c r="G30" s="17" t="n"/>
-      <c r="H30" s="18" t="n"/>
+      <c r="A30" s="19" t="n"/>
+      <c r="B30" s="24" t="n"/>
+      <c r="C30" s="19" t="n"/>
+      <c r="D30" s="19" t="n"/>
+      <c r="E30" s="19" t="n"/>
+      <c r="F30" s="19" t="n"/>
+      <c r="G30" s="19" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="17" t="n"/>
-      <c r="B31" s="17" t="n"/>
-      <c r="C31" s="38" t="n"/>
-      <c r="D31" s="38" t="n"/>
-      <c r="E31" s="17" t="n"/>
-      <c r="F31" s="17" t="n"/>
-      <c r="G31" s="17" t="n"/>
-      <c r="H31" s="18" t="n"/>
+      <c r="A31" s="19" t="n"/>
+      <c r="B31" s="24" t="n"/>
+      <c r="C31" s="19" t="n"/>
+      <c r="D31" s="19" t="n"/>
+      <c r="E31" s="19" t="n"/>
+      <c r="F31" s="19" t="n"/>
+      <c r="G31" s="19" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="17" t="n"/>
-      <c r="B32" s="17" t="n"/>
-      <c r="C32" s="17" t="n"/>
-      <c r="D32" s="17" t="n"/>
-      <c r="E32" s="17" t="n"/>
-      <c r="F32" s="17" t="n"/>
-      <c r="G32" s="17" t="n"/>
+      <c r="A32" s="19" t="n"/>
+      <c r="B32" s="24" t="n"/>
+      <c r="C32" s="19" t="n"/>
+      <c r="D32" s="19" t="n"/>
+      <c r="E32" s="19" t="n"/>
+      <c r="F32" s="19" t="n"/>
+      <c r="G32" s="19" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="17" t="n"/>
-      <c r="B33" s="17" t="n"/>
-      <c r="C33" s="17" t="n"/>
-      <c r="D33" s="17" t="n"/>
-      <c r="E33" s="17" t="n"/>
-      <c r="F33" s="17" t="n"/>
-      <c r="G33" s="17" t="n"/>
+      <c r="A33" s="19" t="n"/>
+      <c r="B33" s="24" t="n"/>
+      <c r="C33" s="19" t="n"/>
+      <c r="D33" s="19" t="n"/>
+      <c r="E33" s="19" t="n"/>
+      <c r="F33" s="19" t="n"/>
+      <c r="G33" s="19" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1098,7 +1096,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="A3:B3"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -1152,6 +1150,19 @@
       <c r="A9" s="2" t="n"/>
       <c r="B9" s="3" t="n"/>
     </row>
+    <row r="11">
+      <c r="A11" s="7" t="n">
+        <v>988635</v>
+      </c>
+      <c r="B11" s="7" t="n">
+        <v>12283200450000</v>
+      </c>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>Robert smith</t>
+        </is>
+      </c>
+    </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
     </row>

--- a/Processed/Cook_county.xlsx
+++ b/Processed/Cook_county.xlsx
@@ -16,9 +16,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -294,10 +293,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -671,7 +670,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F10"/>
+      <selection activeCell="A2" sqref="A2:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -685,8 +684,8 @@
     <col width="17.6328125" customWidth="1" style="6" min="7" max="7"/>
     <col width="24.36328125" customWidth="1" style="6" min="8" max="8"/>
     <col width="18" customWidth="1" style="6" min="9" max="9"/>
-    <col width="8.7265625" customWidth="1" style="6" min="10" max="90"/>
-    <col width="8.7265625" customWidth="1" style="6" min="91" max="16384"/>
+    <col width="8.7265625" customWidth="1" style="6" min="10" max="91"/>
+    <col width="8.7265625" customWidth="1" style="6" min="92" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -763,10 +762,10 @@
         </is>
       </c>
       <c r="F2" s="16" t="n">
-        <v>45040.40414678241</v>
+        <v>45040.4275987963</v>
       </c>
       <c r="G2" s="16" t="n">
-        <v>45040.40517116898</v>
+        <v>45040.42874637731</v>
       </c>
       <c r="H2" s="7" t="inlineStr">
         <is>
@@ -775,7 +774,7 @@
       </c>
       <c r="I2" s="7" t="inlineStr">
         <is>
-          <t>0:01:28.506534</t>
+          <t>0:01:39.151437</t>
         </is>
       </c>
     </row>
@@ -806,10 +805,10 @@
         </is>
       </c>
       <c r="F3" s="16" t="n">
-        <v>45040.40581621528</v>
+        <v>45040.42937613426</v>
       </c>
       <c r="G3" s="16" t="n">
-        <v>45040.40663340278</v>
+        <v>45040.43028042824</v>
       </c>
       <c r="H3" s="7" t="inlineStr">
         <is>
@@ -818,7 +817,7 @@
       </c>
       <c r="I3" s="7" t="inlineStr">
         <is>
-          <t>0:01:10.604967</t>
+          <t>0:01:18.130495</t>
         </is>
       </c>
     </row>
@@ -849,10 +848,10 @@
         </is>
       </c>
       <c r="F4" s="41" t="n">
-        <v>45040.40730919671</v>
+        <v>45040.43091221614</v>
       </c>
       <c r="G4" s="42" t="n">
-        <v>45040.40906180455</v>
+        <v>45040.43245084108</v>
       </c>
       <c r="H4" s="7" t="inlineStr">
         <is>
@@ -861,7 +860,7 @@
       </c>
       <c r="I4" s="7" t="inlineStr">
         <is>
-          <t>0:02:31.425317</t>
+          <t>0:02:12.937195</t>
         </is>
       </c>
     </row>
